--- a/Spark-Cluster-Setup.xlsx
+++ b/Spark-Cluster-Setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\22-Trngs\2-Confirmed\19-PySpark-Geeth\GH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56110B8-8473-4008-AF52-5E335BF88A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5177F5F9-17FD-44D1-95DC-21887EB9CD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75F0A8ED-5E47-4E7D-8A55-D4A42FBCBCCD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Sno</t>
   </si>
@@ -147,6 +147,42 @@
   </si>
   <si>
     <t>vmspark-master</t>
+  </si>
+  <si>
+    <t>http://vmspark-master.eastus.cloudapp.azure.com:8888</t>
+  </si>
+  <si>
+    <t>http://vmpyspark-w1.eastus.cloudapp.azure.com:8888</t>
+  </si>
+  <si>
+    <t>http://vmpyspark-w1-a.eastus.cloudapp.azure.com:8888</t>
+  </si>
+  <si>
+    <t>http://vmpyspark-w2.eastus2.cloudapp.azure.com:8888</t>
+  </si>
+  <si>
+    <t>http://vmpyspark-w3.eastus.cloudapp.azure.com:8888</t>
+  </si>
+  <si>
+    <t>http://vmpyspark-w4.eastus.cloudapp.azure.com:8888</t>
+  </si>
+  <si>
+    <t>u1-u10</t>
+  </si>
+  <si>
+    <t>u11-u20</t>
+  </si>
+  <si>
+    <t>u21-u30</t>
+  </si>
+  <si>
+    <t>u31-u40</t>
+  </si>
+  <si>
+    <t>u41-u50</t>
+  </si>
+  <si>
+    <t>u51-u60</t>
   </si>
 </sst>
 </file>
@@ -516,16 +552,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040E1C91-557C-4116-A8D9-0A3D09E86883}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
     <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.109375" customWidth="1"/>
   </cols>
@@ -659,10 +695,6 @@
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="str">
-        <f>CONCATENATE("sshpass -p Azure@123456 ssh -o StrictHostKeyChecking=no atingupta2005@",B7)</f>
-        <v>sshpass -p Azure@123456 ssh -o StrictHostKeyChecking=no atingupta2005@</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -704,7 +736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -712,7 +744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>5</v>
       </c>
@@ -723,7 +755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -734,7 +766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>13</v>
       </c>
@@ -745,7 +777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -754,6 +786,54 @@
       </c>
       <c r="E21" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
